--- a/data/EQP_Quarterly.xlsx
+++ b/data/EQP_Quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yzho0040\Python\Nonlinear-Models-in-Time-Series-Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0ABD56-37ED-4234-966A-3758A4AAE8F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D66FA07-EE14-42E9-8B9B-C157CC3E4D5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -217,6 +217,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="_x000a_bidires=100_x000d_" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -564,13 +567,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="C367" sqref="C244:C367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="9.140625" style="3"/>
     <col min="24" max="25" width="9.140625" style="2"/>
     <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -580,7 +583,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -663,7 +666,7 @@
       <c r="B2">
         <v>19273</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.15786259623312979</v>
       </c>
       <c r="D2">
@@ -734,7 +737,7 @@
       <c r="B3">
         <v>19274</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>3.2667625641204331E-2</v>
       </c>
       <c r="D3">
@@ -805,7 +808,7 @@
       <c r="B4">
         <v>19281</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>7.279556596531242E-2</v>
       </c>
       <c r="D4">
@@ -876,7 +879,7 @@
       <c r="B5">
         <v>19282</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3.3104727517897139E-3</v>
       </c>
       <c r="D5">
@@ -947,7 +950,7 @@
       <c r="B6">
         <v>19283</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>9.0349060350518484E-2</v>
       </c>
       <c r="D6">
@@ -1018,7 +1021,7 @@
       <c r="B7">
         <v>19284</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.12457796297325779</v>
       </c>
       <c r="D7">
@@ -1089,7 +1092,7 @@
       <c r="B8">
         <v>19291</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>3.866339094268717E-2</v>
       </c>
       <c r="D8">
@@ -1160,7 +1163,7 @@
       <c r="B9">
         <v>19292</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>7.2203092019634901E-2</v>
       </c>
       <c r="D9">
@@ -1231,7 +1234,7 @@
       <c r="B10">
         <v>19293</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>7.5227163059235047E-2</v>
       </c>
       <c r="D10">
@@ -1302,7 +1305,7 @@
       <c r="B11">
         <v>19294</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>-0.32393104675081319</v>
       </c>
       <c r="D11">
@@ -1373,7 +1376,7 @@
       <c r="B12">
         <v>19301</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.14593356807804789</v>
       </c>
       <c r="D12">
@@ -1444,7 +1447,7 @@
       <c r="B13">
         <v>19302</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>-0.20185975202043391</v>
       </c>
       <c r="D13">
@@ -1515,7 +1518,7 @@
       <c r="B14">
         <v>19303</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>-8.7402894488319574E-2</v>
       </c>
       <c r="D14">
@@ -1586,7 +1589,7 @@
       <c r="B15">
         <v>19304</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>-0.18590050597152871</v>
       </c>
       <c r="D15">
@@ -1657,7 +1660,7 @@
       <c r="B16">
         <v>19311</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>8.7908131587203606E-2</v>
       </c>
       <c r="D16">
@@ -1728,7 +1731,7 @@
       <c r="B17">
         <v>19312</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>-0.1124223224138864</v>
       </c>
       <c r="D17">
@@ -1799,7 +1802,7 @@
       <c r="B18">
         <v>19313</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>-0.41101015803865032</v>
       </c>
       <c r="D18">
@@ -1870,7 +1873,7 @@
       <c r="B19">
         <v>19314</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>-0.18154551268847899</v>
       </c>
       <c r="D19">
@@ -1941,7 +1944,7 @@
       <c r="B20">
         <v>19321</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>-9.9386205227144919E-2</v>
       </c>
       <c r="D20">
@@ -2012,7 +2015,7 @@
       <c r="B21">
         <v>19322</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>-0.49675507990609102</v>
       </c>
       <c r="D21">
@@ -2083,7 +2086,7 @@
       <c r="B22">
         <v>19323</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0.63768967972671842</v>
       </c>
       <c r="D22">
@@ -2154,7 +2157,7 @@
       <c r="B23">
         <v>19324</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>-0.14719990907480709</v>
       </c>
       <c r="D23">
@@ -2225,7 +2228,7 @@
       <c r="B24">
         <v>19331</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>-0.14627064661601749</v>
       </c>
       <c r="D24">
@@ -2296,7 +2299,7 @@
       <c r="B25">
         <v>19332</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0.6332414457094242</v>
       </c>
       <c r="D25">
@@ -2367,7 +2370,7 @@
       <c r="B26">
         <v>19333</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>-9.8086105307016794E-2</v>
       </c>
       <c r="D26">
@@ -2438,7 +2441,7 @@
       <c r="B27">
         <v>19334</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>3.4303968317582499E-2</v>
       </c>
       <c r="D27">
@@ -2509,7 +2512,7 @@
       <c r="B28">
         <v>19341</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>8.0108639511991639E-2</v>
       </c>
       <c r="D28">
@@ -2580,7 +2583,7 @@
       <c r="B29">
         <v>19342</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>-8.437491623674391E-2</v>
       </c>
       <c r="D29">
@@ -2651,7 +2654,7 @@
       <c r="B30">
         <v>19343</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>-7.1254828337223255E-2</v>
       </c>
       <c r="D30">
@@ -2722,7 +2725,7 @@
       <c r="B31">
         <v>19344</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>4.8141109898990293E-2</v>
       </c>
       <c r="D31">
@@ -2793,7 +2796,7 @@
       <c r="B32">
         <v>19351</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>-0.1133615778360884</v>
       </c>
       <c r="D32">
@@ -2864,7 +2867,7 @@
       <c r="B33">
         <v>19352</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>0.19732446458076361</v>
       </c>
       <c r="D33">
@@ -2935,7 +2938,7 @@
       <c r="B34">
         <v>19353</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>0.13153919749094831</v>
       </c>
       <c r="D34">
@@ -3006,7 +3009,7 @@
       <c r="B35">
         <v>19354</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>0.1585933858046723</v>
       </c>
       <c r="D35">
@@ -3077,7 +3080,7 @@
       <c r="B36">
         <v>19361</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>0.1149517171712407</v>
       </c>
       <c r="D36">
@@ -3148,7 +3151,7 @@
       <c r="B37">
         <v>19362</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>2.5044402314063452E-3</v>
       </c>
       <c r="D37">
@@ -3219,7 +3222,7 @@
       <c r="B38">
         <v>19363</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>8.9201053997286103E-2</v>
       </c>
       <c r="D38">
@@ -3290,7 +3293,7 @@
       <c r="B39">
         <v>19364</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>7.988382629020209E-2</v>
       </c>
       <c r="D39">
@@ -3361,7 +3364,7 @@
       <c r="B40">
         <v>19371</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>5.0489563228468107E-2</v>
       </c>
       <c r="D40">
@@ -3432,7 +3435,7 @@
       <c r="B41">
         <v>19372</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>-0.14605336615834691</v>
       </c>
       <c r="D41">
@@ -3503,7 +3506,7 @@
       <c r="B42">
         <v>19373</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>-0.1094159468049978</v>
       </c>
       <c r="D42">
@@ -3574,7 +3577,7 @@
       <c r="B43">
         <v>19374</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>-0.24413003937612721</v>
       </c>
       <c r="D43">
@@ -3645,7 +3648,7 @@
       <c r="B44">
         <v>19381</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>-0.21767177234639251</v>
       </c>
       <c r="D44">
@@ -3716,7 +3719,7 @@
       <c r="B45">
         <v>19382</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>0.31832594992441671</v>
       </c>
       <c r="D45">
@@ -3787,7 +3790,7 @@
       <c r="B46">
         <v>19383</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>6.2499832469540918E-2</v>
       </c>
       <c r="D46">
@@ -3858,7 +3861,7 @@
       <c r="B47">
         <v>19384</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>9.3076161334092716E-2</v>
       </c>
       <c r="D47">
@@ -3929,7 +3932,7 @@
       <c r="B48">
         <v>19391</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>-0.17946906906103191</v>
       </c>
       <c r="D48">
@@ -4000,7 +4003,7 @@
       <c r="B49">
         <v>19392</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>-3.2661944401021132E-3</v>
       </c>
       <c r="D49">
@@ -4071,7 +4074,7 @@
       <c r="B50">
         <v>19393</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>0.20202661460965959</v>
       </c>
       <c r="D50">
@@ -4142,7 +4145,7 @@
       <c r="B51">
         <v>19394</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>-3.0970133578040251E-2</v>
       </c>
       <c r="D51">
@@ -4213,7 +4216,7 @@
       <c r="B52">
         <v>19401</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>-1.0164951487232531E-2</v>
       </c>
       <c r="D52">
@@ -4284,7 +4287,7 @@
       <c r="B53">
         <v>19402</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>-0.18805946151039379</v>
       </c>
       <c r="D53">
@@ -4355,7 +4358,7 @@
       <c r="B54">
         <v>19403</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>8.123327990230271E-2</v>
       </c>
       <c r="D54">
@@ -4426,7 +4429,7 @@
       <c r="B55">
         <v>19404</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>1.3556207290900679E-2</v>
       </c>
       <c r="D55">
@@ -4497,7 +4500,7 @@
       <c r="B56">
         <v>19411</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>-4.2582600067572911E-2</v>
       </c>
       <c r="D56">
@@ -4568,7 +4571,7 @@
       <c r="B57">
         <v>19412</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>5.8398532073396072E-3</v>
       </c>
       <c r="D57">
@@ -4639,7 +4642,7 @@
       <c r="B58">
         <v>19413</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>4.674325908470825E-2</v>
       </c>
       <c r="D58">
@@ -4710,7 +4713,7 @@
       <c r="B59">
         <v>19414</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>-0.1318823102872177</v>
       </c>
       <c r="D59">
@@ -4781,7 +4784,7 @@
       <c r="B60">
         <v>19421</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>-6.2810165313489263E-2</v>
       </c>
       <c r="D60">
@@ -4852,7 +4855,7 @@
       <c r="B61">
         <v>19422</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>5.1893376511753811E-2</v>
       </c>
       <c r="D61">
@@ -4923,7 +4926,7 @@
       <c r="B62">
         <v>19423</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>8.1635584782959722E-2</v>
       </c>
       <c r="D62">
@@ -4994,7 +4997,7 @@
       <c r="B63">
         <v>19424</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>0.11625459825294999</v>
       </c>
       <c r="D63">
@@ -5065,7 +5068,7 @@
       <c r="B64">
         <v>19431</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>0.1835434140607127</v>
       </c>
       <c r="D64">
@@ -5136,7 +5139,7 @@
       <c r="B65">
         <v>19432</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>7.5445562032431301E-2</v>
       </c>
       <c r="D65">
@@ -5207,7 +5210,7 @@
       <c r="B66">
         <v>19433</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>-1.227449798190392E-2</v>
       </c>
       <c r="D66">
@@ -5278,7 +5281,7 @@
       <c r="B67">
         <v>19434</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>-1.413010128388352E-2</v>
       </c>
       <c r="D67">
@@ -5349,7 +5352,7 @@
       <c r="B68">
         <v>19441</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>4.5048340366070409E-2</v>
       </c>
       <c r="D68">
@@ -5420,7 +5423,7 @@
       <c r="B69">
         <v>19442</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>8.7368228988270666E-2</v>
       </c>
       <c r="D69">
@@ -5491,7 +5494,7 @@
       <c r="B70">
         <v>19443</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>-6.7108234546367817E-3</v>
       </c>
       <c r="D70">
@@ -5562,7 +5565,7 @@
       <c r="B71">
         <v>19444</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>6.2465513121239817E-2</v>
       </c>
       <c r="D71">
@@ -5633,7 +5636,7 @@
       <c r="B72">
         <v>19451</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <v>3.5467514660328638E-2</v>
       </c>
       <c r="D72">
@@ -5704,7 +5707,7 @@
       <c r="B73">
         <v>19452</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>0.107928760487397</v>
       </c>
       <c r="D73">
@@ -5775,7 +5778,7 @@
       <c r="B74">
         <v>19453</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>8.0723807218580121E-2</v>
       </c>
       <c r="D74">
@@ -5846,7 +5849,7 @@
       <c r="B75">
         <v>19454</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>8.4440724145066468E-2</v>
       </c>
       <c r="D75">
@@ -5917,7 +5920,7 @@
       <c r="B76">
         <v>19461</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>4.6803597614952057E-2</v>
       </c>
       <c r="D76">
@@ -5988,7 +5991,7 @@
       <c r="B77">
         <v>19462</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>2.6626111909553302E-2</v>
       </c>
       <c r="D77">
@@ -6059,7 +6062,7 @@
       <c r="B78">
         <v>19463</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>-0.20996178012900321</v>
       </c>
       <c r="D78">
@@ -6130,7 +6133,7 @@
       <c r="B79">
         <v>19464</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>3.5345353417937569E-2</v>
       </c>
       <c r="D79">
@@ -6201,7 +6204,7 @@
       <c r="B80">
         <v>19471</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>-2.6387922500972238E-3</v>
       </c>
       <c r="D80">
@@ -6272,7 +6275,7 @@
       <c r="B81">
         <v>19472</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>1.0280105584460341E-2</v>
       </c>
       <c r="D81">
@@ -6343,7 +6346,7 @@
       <c r="B82">
         <v>19473</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>4.5355106101396371E-3</v>
       </c>
       <c r="D82">
@@ -6414,7 +6417,7 @@
       <c r="B83">
         <v>19474</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>3.0900495197466252E-2</v>
       </c>
       <c r="D83">
@@ -6485,7 +6488,7 @@
       <c r="B84">
         <v>19481</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>-3.6161003961228859E-3</v>
       </c>
       <c r="D84">
@@ -6556,7 +6559,7 @@
       <c r="B85">
         <v>19482</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>0.11616528312110511</v>
       </c>
       <c r="D85">
@@ -6627,7 +6630,7 @@
       <c r="B86">
         <v>19483</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>-6.8178076859928521E-2</v>
       </c>
       <c r="D86">
@@ -6698,7 +6701,7 @@
       <c r="B87">
         <v>19484</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>-3.2124153320630452E-3</v>
       </c>
       <c r="D87">
@@ -6769,7 +6772,7 @@
       <c r="B88">
         <v>19491</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>1.0426961065844789E-3</v>
       </c>
       <c r="D88">
@@ -6840,7 +6843,7 @@
       <c r="B89">
         <v>19492</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <v>-4.9910672791960091E-2</v>
       </c>
       <c r="D89">
@@ -6911,7 +6914,7 @@
       <c r="B90">
         <v>19493</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>0.1065339372311794</v>
       </c>
       <c r="D90">
@@ -6982,7 +6985,7 @@
       <c r="B91">
         <v>19494</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
         <v>9.6926521908390795E-2</v>
       </c>
       <c r="D91">
@@ -7053,7 +7056,7 @@
       <c r="B92">
         <v>19501</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <v>4.4330203158605523E-2</v>
       </c>
       <c r="D92">
@@ -7124,7 +7127,7 @@
       <c r="B93">
         <v>19502</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <v>3.2155044217812463E-2</v>
       </c>
       <c r="D93">
@@ -7195,7 +7198,7 @@
       <c r="B94">
         <v>19503</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <v>0.1186762655993954</v>
       </c>
       <c r="D94">
@@ -7266,7 +7269,7 @@
       <c r="B95">
         <v>19504</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
         <v>7.7952066286789704E-2</v>
       </c>
       <c r="D95">
@@ -7337,7 +7340,7 @@
       <c r="B96">
         <v>19511</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
         <v>5.6531556005483083E-2</v>
       </c>
       <c r="D96">
@@ -7408,7 +7411,7 @@
       <c r="B97">
         <v>19512</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>-1.217909819915274E-2</v>
       </c>
       <c r="D97">
@@ -7479,7 +7482,7 @@
       <c r="B98">
         <v>19513</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <v>0.11677721432462471</v>
       </c>
       <c r="D98">
@@ -7550,7 +7553,7 @@
       <c r="B99">
         <v>19514</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <v>3.4810789148728198E-2</v>
       </c>
       <c r="D99">
@@ -7621,7 +7624,7 @@
       <c r="B100">
         <v>19521</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <v>3.918933304157602E-2</v>
       </c>
       <c r="D100">
@@ -7692,7 +7695,7 @@
       <c r="B101">
         <v>19522</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <v>3.3593425069006019E-2</v>
       </c>
       <c r="D101">
@@ -7775,7 +7778,7 @@
       <c r="B102">
         <v>19523</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
         <v>-9.2333440356612475E-3</v>
       </c>
       <c r="D102">
@@ -7858,7 +7861,7 @@
       <c r="B103">
         <v>19524</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
         <v>9.3128785587818397E-2</v>
       </c>
       <c r="D103">
@@ -7941,7 +7944,7 @@
       <c r="B104">
         <v>19531</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="2">
         <v>-4.154644090221031E-2</v>
       </c>
       <c r="D104">
@@ -8024,7 +8027,7 @@
       <c r="B105">
         <v>19532</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
         <v>-3.7641162818648058E-2</v>
       </c>
       <c r="D105">
@@ -8107,7 +8110,7 @@
       <c r="B106">
         <v>19533</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="2">
         <v>-2.8502396941847089E-2</v>
       </c>
       <c r="D106">
@@ -8190,7 +8193,7 @@
       <c r="B107">
         <v>19534</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="2">
         <v>7.0517430824115324E-2</v>
       </c>
       <c r="D107">
@@ -8273,7 +8276,7 @@
       <c r="B108">
         <v>19541</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="2">
         <v>9.1019176688372047E-2</v>
       </c>
       <c r="D108">
@@ -8356,7 +8359,7 @@
       <c r="B109">
         <v>19542</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <v>8.9004749033384539E-2</v>
       </c>
       <c r="D109">
@@ -8439,7 +8442,7 @@
       <c r="B110">
         <v>19543</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <v>0.108481992759883</v>
       </c>
       <c r="D110">
@@ -8522,7 +8525,7 @@
       <c r="B111">
         <v>19544</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
         <v>0.12377626099942481</v>
       </c>
       <c r="D111">
@@ -8605,7 +8608,7 @@
       <c r="B112">
         <v>19551</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
         <v>2.6234519650021829E-2</v>
       </c>
       <c r="D112">
@@ -8688,7 +8691,7 @@
       <c r="B113">
         <v>19552</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
         <v>0.120451266861353</v>
       </c>
       <c r="D113">
@@ -8771,7 +8774,7 @@
       <c r="B114">
         <v>19553</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
         <v>6.3101460345027338E-2</v>
       </c>
       <c r="D114">
@@ -8854,7 +8857,7 @@
       <c r="B115">
         <v>19554</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
         <v>4.7767788312970239E-2</v>
       </c>
       <c r="D115">
@@ -8937,7 +8940,7 @@
       <c r="B116">
         <v>19561</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
         <v>6.6512054120437453E-2</v>
       </c>
       <c r="D116">
@@ -9020,7 +9023,7 @@
       <c r="B117">
         <v>19562</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
         <v>-2.8263946577549871E-2</v>
       </c>
       <c r="D117">
@@ -9103,7 +9106,7 @@
       <c r="B118">
         <v>19563</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
         <v>-3.4415367160825543E-2</v>
       </c>
       <c r="D118">
@@ -9186,7 +9189,7 @@
       <c r="B119">
         <v>19564</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
         <v>3.3240666989651682E-2</v>
       </c>
       <c r="D119">
@@ -9269,7 +9272,7 @@
       <c r="B120">
         <v>19571</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="2">
         <v>-5.0750080332223092E-2</v>
       </c>
       <c r="D120">
@@ -9352,7 +9355,7 @@
       <c r="B121">
         <v>19572</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="2">
         <v>7.5114482765791274E-2</v>
       </c>
       <c r="D121">
@@ -9435,7 +9438,7 @@
       <c r="B122">
         <v>19573</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="2">
         <v>-0.108352230539913</v>
       </c>
       <c r="D122">
@@ -9518,7 +9521,7 @@
       <c r="B123">
         <v>19574</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
         <v>-6.310816713444943E-2</v>
       </c>
       <c r="D123">
@@ -9601,7 +9604,7 @@
       <c r="B124">
         <v>19581</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="2">
         <v>5.5249240416614477E-2</v>
       </c>
       <c r="D124">
@@ -9684,7 +9687,7 @@
       <c r="B125">
         <v>19582</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="2">
         <v>7.8419289264418462E-2</v>
       </c>
       <c r="D125">
@@ -9767,7 +9770,7 @@
       <c r="B126">
         <v>19583</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="2">
         <v>0.10837424967579321</v>
       </c>
       <c r="D126">
@@ -9850,7 +9853,7 @@
       <c r="B127">
         <v>19584</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="2">
         <v>0.101834556260854</v>
       </c>
       <c r="D127">
@@ -9933,7 +9936,7 @@
       <c r="B128">
         <v>19591</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
         <v>9.4448871468661502E-3</v>
       </c>
       <c r="D128">
@@ -10016,7 +10019,7 @@
       <c r="B129">
         <v>19592</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
         <v>5.4927868318817873E-2</v>
       </c>
       <c r="D129">
@@ -10099,7 +10102,7 @@
       <c r="B130">
         <v>19593</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="2">
         <v>-2.935076499486897E-2</v>
       </c>
       <c r="D130">
@@ -10182,7 +10185,7 @@
       <c r="B131">
         <v>19594</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="2">
         <v>4.9960079512576028E-2</v>
       </c>
       <c r="D131">
@@ -10265,7 +10268,7 @@
       <c r="B132">
         <v>19601</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="2">
         <v>-8.2480760375315959E-2</v>
       </c>
       <c r="D132">
@@ -10348,7 +10351,7 @@
       <c r="B133">
         <v>19602</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="2">
         <v>3.00462380956198E-2</v>
       </c>
       <c r="D133">
@@ -10431,7 +10434,7 @@
       <c r="B134">
         <v>19603</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="2">
         <v>-5.8871700568947458E-2</v>
       </c>
       <c r="D134">
@@ -10514,7 +10517,7 @@
       <c r="B135">
         <v>19604</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="2">
         <v>8.5474197019110645E-2</v>
       </c>
       <c r="D135">
@@ -10597,7 +10600,7 @@
       <c r="B136">
         <v>19611</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="2">
         <v>0.1179598895019618</v>
       </c>
       <c r="D136">
@@ -10680,7 +10683,7 @@
       <c r="B137">
         <v>19612</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="2">
         <v>-5.1857530164252062E-3</v>
       </c>
       <c r="D137">
@@ -10763,7 +10766,7 @@
       <c r="B138">
         <v>19613</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="2">
         <v>3.3006999560697338E-2</v>
       </c>
       <c r="D138">
@@ -10846,7 +10849,7 @@
       <c r="B139">
         <v>19614</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="2">
         <v>7.1019707706716326E-2</v>
       </c>
       <c r="D139">
@@ -10929,7 +10932,7 @@
       <c r="B140">
         <v>19621</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="2">
         <v>-2.8017128068673101E-2</v>
       </c>
       <c r="D140">
@@ -11012,7 +11015,7 @@
       <c r="B141">
         <v>19622</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="2">
         <v>-0.23783273036529981</v>
       </c>
       <c r="D141">
@@ -11095,7 +11098,7 @@
       <c r="B142">
         <v>19623</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="2">
         <v>2.7753386169732469E-2</v>
       </c>
       <c r="D142">
@@ -11178,7 +11181,7 @@
       <c r="B143">
         <v>19624</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="2">
         <v>0.11956569610685119</v>
       </c>
       <c r="D143">
@@ -11261,7 +11264,7 @@
       <c r="B144">
         <v>19631</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="2">
         <v>5.3431683346881031E-2</v>
       </c>
       <c r="D144">
@@ -11344,7 +11347,7 @@
       <c r="B145">
         <v>19632</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="2">
         <v>4.1407750946035757E-2</v>
       </c>
       <c r="D145">
@@ -11427,7 +11430,7 @@
       <c r="B146">
         <v>19633</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="2">
         <v>3.2359340771210172E-2</v>
       </c>
       <c r="D146">
@@ -11510,7 +11513,7 @@
       <c r="B147">
         <v>19634</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="2">
         <v>4.7051832464387898E-2</v>
       </c>
       <c r="D147">
@@ -11593,7 +11596,7 @@
       <c r="B148">
         <v>19641</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="2">
         <v>5.2218152565448601E-2</v>
       </c>
       <c r="D148">
@@ -11676,7 +11679,7 @@
       <c r="B149">
         <v>19642</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="2">
         <v>3.195946246619636E-2</v>
       </c>
       <c r="D149">
@@ -11759,7 +11762,7 @@
       <c r="B150">
         <v>19643</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="2">
         <v>2.8328109695399759E-2</v>
       </c>
       <c r="D150">
@@ -11842,7 +11845,7 @@
       <c r="B151">
         <v>19644</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="2">
         <v>6.7318026887750321E-3</v>
       </c>
       <c r="D151">
@@ -11925,7 +11928,7 @@
       <c r="B152">
         <v>19651</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="2">
         <v>1.609607084810856E-2</v>
       </c>
       <c r="D152">
@@ -12008,7 +12011,7 @@
       <c r="B153">
         <v>19652</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="2">
         <v>-2.5925840911118259E-2</v>
       </c>
       <c r="D153">
@@ -12091,7 +12094,7 @@
       <c r="B154">
         <v>19653</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="2">
         <v>6.4935416586831815E-2</v>
       </c>
       <c r="D154">
@@ -12174,7 +12177,7 @@
       <c r="B155">
         <v>19654</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="2">
         <v>2.5119944116478821E-2</v>
       </c>
       <c r="D155">
@@ -12257,7 +12260,7 @@
       <c r="B156">
         <v>19661</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="2">
         <v>-4.1344266548591233E-2</v>
       </c>
       <c r="D156">
@@ -12340,7 +12343,7 @@
       <c r="B157">
         <v>19662</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="2">
         <v>-5.436641782758702E-2</v>
       </c>
       <c r="D157">
@@ -12423,7 +12426,7 @@
       <c r="B158">
         <v>19663</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="2">
         <v>-0.10400038337567009</v>
       </c>
       <c r="D158">
@@ -12506,7 +12509,7 @@
       <c r="B159">
         <v>19664</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="2">
         <v>4.535203661268699E-2</v>
       </c>
       <c r="D159">
@@ -12589,7 +12592,7 @@
       <c r="B160">
         <v>19671</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="2">
         <v>0.11170947103481919</v>
       </c>
       <c r="D160">
@@ -12672,7 +12675,7 @@
       <c r="B161">
         <v>19672</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="2">
         <v>3.0568617293012588E-3</v>
       </c>
       <c r="D161">
@@ -12755,7 +12758,7 @@
       <c r="B162">
         <v>19673</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="2">
         <v>6.3004690908730066E-2</v>
       </c>
       <c r="D162">
@@ -12838,7 +12841,7 @@
       <c r="B163">
         <v>19674</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="2">
         <v>-5.6878944328941777E-3</v>
       </c>
       <c r="D163">
@@ -12921,7 +12924,7 @@
       <c r="B164">
         <v>19681</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="2">
         <v>-7.2744604243568795E-2</v>
       </c>
       <c r="D164">
@@ -13004,7 +13007,7 @@
       <c r="B165">
         <v>19682</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="2">
         <v>9.4009135985761522E-2</v>
       </c>
       <c r="D165">
@@ -13087,7 +13090,7 @@
       <c r="B166">
         <v>19683</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="2">
         <v>2.3574623759321421E-2</v>
       </c>
       <c r="D166">
@@ -13170,7 +13173,7 @@
       <c r="B167">
         <v>19684</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="2">
         <v>6.1699028058000999E-3</v>
       </c>
       <c r="D167">
@@ -13253,7 +13256,7 @@
       <c r="B168">
         <v>19691</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="2">
         <v>-3.1354748705117022E-2</v>
       </c>
       <c r="D168">
@@ -13336,7 +13339,7 @@
       <c r="B169">
         <v>19692</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="2">
         <v>-4.4465829092949598E-2</v>
       </c>
       <c r="D169">
@@ -13419,7 +13422,7 @@
       <c r="B170">
         <v>19693</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="2">
         <v>-5.5911862019891831E-2</v>
       </c>
       <c r="D170">
@@ -13502,7 +13505,7 @@
       <c r="B171">
         <v>19694</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="2">
         <v>-1.8388503412244059E-2</v>
       </c>
       <c r="D171">
@@ -13585,7 +13588,7 @@
       <c r="B172">
         <v>19701</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="2">
         <v>-3.7134268080487892E-2</v>
       </c>
       <c r="D172">
@@ -13668,7 +13671,7 @@
       <c r="B173">
         <v>19702</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="2">
         <v>-0.21598219334540289</v>
       </c>
       <c r="D173">
@@ -13751,7 +13754,7 @@
       <c r="B174">
         <v>19703</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="2">
         <v>0.13893714239829419</v>
       </c>
       <c r="D174">
@@ -13834,7 +13837,7 @@
       <c r="B175">
         <v>19704</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="2">
         <v>8.5729011667935492E-2</v>
       </c>
       <c r="D175">
@@ -13917,7 +13920,7 @@
       <c r="B176">
         <v>19711</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="2">
         <v>8.1388038406681074E-2</v>
       </c>
       <c r="D176">
@@ -14000,7 +14003,7 @@
       <c r="B177">
         <v>19712</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="2">
         <v>-7.5379332178727868E-3</v>
       </c>
       <c r="D177">
@@ -14083,7 +14086,7 @@
       <c r="B178">
         <v>19713</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="2">
         <v>-1.7363111400717241E-2</v>
       </c>
       <c r="D178">
@@ -14166,7 +14169,7 @@
       <c r="B179">
         <v>19714</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="2">
         <v>3.4511483770070267E-2</v>
       </c>
       <c r="D179">
@@ -14249,7 +14252,7 @@
       <c r="B180">
         <v>19721</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="2">
         <v>4.599474414758345E-2</v>
       </c>
       <c r="D180">
@@ -14332,7 +14335,7 @@
       <c r="B181">
         <v>19722</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="2">
         <v>-2.4025504298713801E-3</v>
       </c>
       <c r="D181">
@@ -14415,7 +14418,7 @@
       <c r="B182">
         <v>19723</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="2">
         <v>2.8897507108478909E-2</v>
       </c>
       <c r="D182">
@@ -14498,7 +14501,7 @@
       <c r="B183">
         <v>19724</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="2">
         <v>6.1880083017510357E-2</v>
       </c>
       <c r="D183">
@@ -14581,7 +14584,7 @@
       <c r="B184">
         <v>19731</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="2">
         <v>-6.4985900791442619E-2</v>
       </c>
       <c r="D184">
@@ -14664,7 +14667,7 @@
       <c r="B185">
         <v>19732</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="2">
         <v>-7.5238594239085688E-2</v>
       </c>
       <c r="D185">
@@ -14747,7 +14750,7 @@
       <c r="B186">
         <v>19733</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="2">
         <v>2.9866405785936769E-2</v>
       </c>
       <c r="D186">
@@ -14830,7 +14833,7 @@
       <c r="B187">
         <v>19734</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="2">
         <v>-0.1158048663312477</v>
       </c>
       <c r="D187">
@@ -14913,7 +14916,7 @@
       <c r="B188">
         <v>19741</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="2">
         <v>-4.6676339006912981E-2</v>
       </c>
       <c r="D188">
@@ -14996,7 +14999,7 @@
       <c r="B189">
         <v>19742</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="2">
         <v>-9.8243763278874144E-2</v>
       </c>
       <c r="D189">
@@ -15079,7 +15082,7 @@
       <c r="B190">
         <v>19743</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="2">
         <v>-0.31011607552934251</v>
       </c>
       <c r="D190">
@@ -15162,7 +15165,7 @@
       <c r="B191">
         <v>19744</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="2">
         <v>7.0489978233126929E-2</v>
       </c>
       <c r="D191">
@@ -15245,7 +15248,7 @@
       <c r="B192">
         <v>19751</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="2">
         <v>0.18784178845904781</v>
       </c>
       <c r="D192">
@@ -15328,7 +15331,7 @@
       <c r="B193">
         <v>19752</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="2">
         <v>0.12971915523459901</v>
       </c>
       <c r="D193">
@@ -15411,7 +15414,7 @@
       <c r="B194">
         <v>19753</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="2">
         <v>-0.12957805685493989</v>
       </c>
       <c r="D194">
@@ -15494,7 +15497,7 @@
       <c r="B195">
         <v>19754</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="2">
         <v>6.6020930506028808E-2</v>
       </c>
       <c r="D195">
@@ -15577,7 +15580,7 @@
       <c r="B196">
         <v>19761</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="2">
         <v>0.1262940059728162</v>
       </c>
       <c r="D196">
@@ -15660,7 +15663,7 @@
       <c r="B197">
         <v>19762</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="2">
         <v>1.2792108608137511E-2</v>
       </c>
       <c r="D197">
@@ -15743,7 +15746,7 @@
       <c r="B198">
         <v>19763</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="2">
         <v>5.0628846990684474E-3</v>
       </c>
       <c r="D198">
@@ -15826,7 +15829,7 @@
       <c r="B199">
         <v>19764</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="2">
         <v>1.829934465031537E-2</v>
       </c>
       <c r="D199">
@@ -15909,7 +15912,7 @@
       <c r="B200">
         <v>19771</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="2">
         <v>-9.0087813533554856E-2</v>
       </c>
       <c r="D200">
@@ -15992,7 +15995,7 @@
       <c r="B201">
         <v>19772</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="2">
         <v>2.069762507639453E-2</v>
       </c>
       <c r="D201">
@@ -16075,7 +16078,7 @@
       <c r="B202">
         <v>19773</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="2">
         <v>-4.1257279719102757E-2</v>
       </c>
       <c r="D202">
@@ -16158,7 +16161,7 @@
       <c r="B203">
         <v>19774</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="2">
         <v>-1.5664028189397529E-2</v>
       </c>
       <c r="D203">
@@ -16241,7 +16244,7 @@
       <c r="B204">
         <v>19781</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="2">
         <v>-6.7445436204725637E-2</v>
       </c>
       <c r="D204">
@@ -16324,7 +16327,7 @@
       <c r="B205">
         <v>19782</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="2">
         <v>6.6532935884352704E-2</v>
       </c>
       <c r="D205">
@@ -16407,7 +16410,7 @@
       <c r="B206">
         <v>19783</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="2">
         <v>6.6636227239963569E-2</v>
       </c>
       <c r="D206">
@@ -16490,7 +16493,7 @@
       <c r="B207">
         <v>19784</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="2">
         <v>-7.0363964915971022E-2</v>
       </c>
       <c r="D207">
@@ -16573,7 +16576,7 @@
       <c r="B208">
         <v>19791</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="2">
         <v>4.6073225049375811E-2</v>
       </c>
       <c r="D208">
@@ -16656,7 +16659,7 @@
       <c r="B209">
         <v>19792</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="2">
         <v>3.3219352647234149E-3</v>
       </c>
       <c r="D209">
@@ -16739,7 +16742,7 @@
       <c r="B210">
         <v>19793</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="2">
         <v>5.1023461923156703E-2</v>
       </c>
       <c r="D210">
@@ -16822,7 +16825,7 @@
       <c r="B211">
         <v>19794</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="2">
         <v>-2.3529132126668208E-2</v>
       </c>
       <c r="D211">
@@ -16905,7 +16908,7 @@
       <c r="B212">
         <v>19801</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="2">
         <v>-7.0152711536183229E-2</v>
       </c>
       <c r="D212">
@@ -16988,7 +16991,7 @@
       <c r="B213">
         <v>19802</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="2">
         <v>8.7584500806727278E-2</v>
       </c>
       <c r="D213">
@@ -17071,7 +17074,7 @@
       <c r="B214">
         <v>19803</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="2">
         <v>8.9370609275513074E-2</v>
       </c>
       <c r="D214">
@@ -17154,7 +17157,7 @@
       <c r="B215">
         <v>19804</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="2">
         <v>6.546724682831144E-2</v>
       </c>
       <c r="D215">
@@ -17237,7 +17240,7 @@
       <c r="B216">
         <v>19811</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="2">
         <v>-2.3718259814872081E-2</v>
       </c>
       <c r="D216">
@@ -17320,7 +17323,7 @@
       <c r="B217">
         <v>19812</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="2">
         <v>-5.5043921202027953E-2</v>
       </c>
       <c r="D217">
@@ -17403,7 +17406,7 @@
       <c r="B218">
         <v>19813</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="2">
         <v>-0.14437529819430481</v>
       </c>
       <c r="D218">
@@ -17486,7 +17489,7 @@
       <c r="B219">
         <v>19814</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="2">
         <v>3.0173534863804991E-2</v>
       </c>
       <c r="D219">
@@ -17569,7 +17572,7 @@
       <c r="B220">
         <v>19821</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="2">
         <v>-0.10083580562672451</v>
       </c>
       <c r="D220">
@@ -17652,7 +17655,7 @@
       <c r="B221">
         <v>19822</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="2">
         <v>-3.635178089755596E-2</v>
       </c>
       <c r="D221">
@@ -17735,7 +17738,7 @@
       <c r="B222">
         <v>19823</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="2">
         <v>7.9252452163308271E-2</v>
       </c>
       <c r="D222">
@@ -17818,7 +17821,7 @@
       <c r="B223">
         <v>19824</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="2">
         <v>0.14966064240684679</v>
       </c>
       <c r="D223">
@@ -17901,7 +17904,7 @@
       <c r="B224">
         <v>19831</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="2">
         <v>7.5291829669611399E-2</v>
       </c>
       <c r="D224">
@@ -17984,7 +17987,7 @@
       <c r="B225">
         <v>19832</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="2">
         <v>8.2928939188206541E-2</v>
       </c>
       <c r="D225">
@@ -18067,7 +18070,7 @@
       <c r="B226">
         <v>19833</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="2">
         <v>-2.3727408904668391E-2</v>
       </c>
       <c r="D226">
@@ -18150,7 +18153,7 @@
       <c r="B227">
         <v>19834</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="2">
         <v>-1.7644741392031069E-2</v>
       </c>
       <c r="D227">
@@ -18233,7 +18236,7 @@
       <c r="B228">
         <v>19841</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="2">
         <v>-4.3635724179235461E-2</v>
       </c>
       <c r="D228">
@@ -18316,7 +18319,7 @@
       <c r="B229">
         <v>19842</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="2">
         <v>-4.8679708055733129E-2</v>
       </c>
       <c r="D229">
@@ -18399,7 +18402,7 @@
       <c r="B230">
         <v>19843</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="2">
         <v>6.8253895915597274E-2</v>
       </c>
       <c r="D230">
@@ -18482,7 +18485,7 @@
       <c r="B231">
         <v>19844</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="2">
         <v>-6.9240182936784779E-3</v>
       </c>
       <c r="D231">
@@ -18565,7 +18568,7 @@
       <c r="B232">
         <v>19851</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="2">
         <v>6.7537550204393851E-2</v>
       </c>
       <c r="D232">
@@ -18648,7 +18651,7 @@
       <c r="B233">
         <v>19852</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="2">
         <v>5.2000599753374198E-2</v>
       </c>
       <c r="D233">
@@ -18731,7 +18734,7 @@
       <c r="B234">
         <v>19853</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="2">
         <v>-6.0859627846235179E-2</v>
       </c>
       <c r="D234">
@@ -18814,7 +18817,7 @@
       <c r="B235">
         <v>19854</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="2">
         <v>0.1429512486722159</v>
       </c>
       <c r="D235">
@@ -18897,7 +18900,7 @@
       <c r="B236">
         <v>19861</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="2">
         <v>0.11516799567976441</v>
       </c>
       <c r="D236">
@@ -18980,7 +18983,7 @@
       <c r="B237">
         <v>19862</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="2">
         <v>3.9766215066830111E-2</v>
       </c>
       <c r="D237">
@@ -19063,7 +19066,7 @@
       <c r="B238">
         <v>19863</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="2">
         <v>-8.9803229586136124E-2</v>
       </c>
       <c r="D238">
@@ -19146,7 +19149,7 @@
       <c r="B239">
         <v>19864</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="2">
         <v>3.8729679586953683E-2</v>
       </c>
       <c r="D239">
@@ -19229,7 +19232,7 @@
       <c r="B240">
         <v>19871</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="2">
         <v>0.1799876122946194</v>
       </c>
       <c r="D240">
@@ -19312,7 +19315,7 @@
       <c r="B241">
         <v>19872</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="2">
         <v>3.5045675821862063E-2</v>
       </c>
       <c r="D241">
@@ -19395,7 +19398,7 @@
       <c r="B242">
         <v>19873</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="2">
         <v>5.0743546756769002E-2</v>
       </c>
       <c r="D242">
@@ -19478,7 +19481,7 @@
       <c r="B243">
         <v>19874</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="2">
         <v>-0.27306143750331568</v>
       </c>
       <c r="D243">
@@ -19561,7 +19564,7 @@
       <c r="B244">
         <v>19881</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="2">
         <v>4.252414247361512E-2</v>
       </c>
       <c r="D244">
@@ -19644,7 +19647,7 @@
       <c r="B245">
         <v>19882</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="2">
         <v>5.0866120511265031E-2</v>
       </c>
       <c r="D245">
@@ -19727,7 +19730,7 @@
       <c r="B246">
         <v>19883</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="2">
         <v>-1.166548861176374E-2</v>
       </c>
       <c r="D246">
@@ -19810,7 +19813,7 @@
       <c r="B247">
         <v>19884</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="2">
         <v>1.252160867377919E-2</v>
       </c>
       <c r="D247">
@@ -19893,7 +19896,7 @@
       <c r="B248">
         <v>19891</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="2">
         <v>4.726151932525282E-2</v>
       </c>
       <c r="D248">
@@ -19976,7 +19979,7 @@
       <c r="B249">
         <v>19892</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="2">
         <v>6.3180266289565398E-2</v>
       </c>
       <c r="D249">
@@ -20059,7 +20062,7 @@
       <c r="B250">
         <v>19893</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="2">
         <v>8.1702573916093549E-2</v>
       </c>
       <c r="D250">
@@ -20142,7 +20145,7 @@
       <c r="B251">
         <v>19894</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="2">
         <v>-4.3631101236472902E-4</v>
       </c>
       <c r="D251">
@@ -20225,7 +20228,7 @@
       <c r="B252">
         <v>19901</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="2">
         <v>-4.9421202505985987E-2</v>
       </c>
       <c r="D252">
@@ -20308,7 +20311,7 @@
       <c r="B253">
         <v>19902</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="2">
         <v>4.181742906006778E-2</v>
       </c>
       <c r="D253">
@@ -20391,7 +20394,7 @@
       <c r="B254">
         <v>19903</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="2">
         <v>-0.16899398386240291</v>
       </c>
       <c r="D254">
@@ -20474,7 +20477,7 @@
       <c r="B255">
         <v>19904</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="2">
         <v>6.8328775626068261E-2</v>
       </c>
       <c r="D255">
@@ -20557,7 +20560,7 @@
       <c r="B256">
         <v>19911</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="2">
         <v>0.12049059550601129</v>
       </c>
       <c r="D256">
@@ -20640,7 +20643,7 @@
       <c r="B257">
         <v>19912</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="2">
         <v>-1.6785251780637379E-2</v>
       </c>
       <c r="D257">
@@ -20723,7 +20726,7 @@
       <c r="B258">
         <v>19913</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="2">
         <v>3.8246620036682548E-2</v>
       </c>
       <c r="D258">
@@ -20806,7 +20809,7 @@
       <c r="B259">
         <v>19914</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="2">
         <v>6.7394757666081134E-2</v>
       </c>
       <c r="D259">
@@ -20889,7 +20892,7 @@
       <c r="B260">
         <v>19921</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="2">
         <v>-3.5521083740275627E-2</v>
       </c>
       <c r="D260">
@@ -20972,7 +20975,7 @@
       <c r="B261">
         <v>19922</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="2">
         <v>7.8571106596770825E-3</v>
       </c>
       <c r="D261">
@@ -21055,7 +21058,7 @@
       <c r="B262">
         <v>19923</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="2">
         <v>2.1446116743242979E-2</v>
       </c>
       <c r="D262">
@@ -21138,7 +21141,7 @@
       <c r="B263">
         <v>19924</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="2">
         <v>4.4062679249883788E-2</v>
       </c>
       <c r="D263">
@@ -21221,7 +21224,7 @@
       <c r="B264">
         <v>19931</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="2">
         <v>3.3653547780727759E-2</v>
       </c>
       <c r="D264">
@@ -21304,7 +21307,7 @@
       <c r="B265">
         <v>19932</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="2">
         <v>-2.7923751581739329E-3</v>
       </c>
       <c r="D265">
@@ -21387,7 +21390,7 @@
       <c r="B266">
         <v>19933</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="2">
         <v>1.6887298146504481E-2</v>
       </c>
       <c r="D266">
@@ -21470,7 +21473,7 @@
       <c r="B267">
         <v>19934</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="2">
         <v>1.621499277250691E-2</v>
       </c>
       <c r="D267">
@@ -21553,7 +21556,7 @@
       <c r="B268">
         <v>19941</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="2">
         <v>-4.6703656176208523E-2</v>
       </c>
       <c r="D268">
@@ -21636,7 +21639,7 @@
       <c r="B269">
         <v>19942</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="2">
         <v>-4.8726816181764911E-3</v>
       </c>
       <c r="D269">
@@ -21719,7 +21722,7 @@
       <c r="B270">
         <v>19943</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="2">
         <v>3.817156941143908E-2</v>
       </c>
       <c r="D270">
@@ -21802,7 +21805,7 @@
       <c r="B271">
         <v>19944</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="2">
         <v>-1.119382670438083E-2</v>
       </c>
       <c r="D271">
@@ -21885,7 +21888,7 @@
       <c r="B272">
         <v>19951</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="2">
         <v>7.9154962556390915E-2</v>
       </c>
       <c r="D272">
@@ -21968,7 +21971,7 @@
       <c r="B273">
         <v>19952</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="2">
         <v>7.7652809180763949E-2</v>
       </c>
       <c r="D273">
@@ -22051,7 +22054,7 @@
       <c r="B274">
         <v>19953</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="2">
         <v>6.4005568180319675E-2</v>
       </c>
       <c r="D274">
@@ -22134,7 +22137,7 @@
       <c r="B275">
         <v>19954</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="2">
         <v>4.4158523247066213E-2</v>
       </c>
       <c r="D275">
@@ -22217,7 +22220,7 @@
       <c r="B276">
         <v>19961</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="2">
         <v>4.1075789999496452E-2</v>
       </c>
       <c r="D276">
@@ -22300,7 +22303,7 @@
       <c r="B277">
         <v>19962</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="2">
         <v>3.1758704756370222E-2</v>
       </c>
       <c r="D277">
@@ -22383,7 +22386,7 @@
       <c r="B278">
         <v>19963</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="2">
         <v>1.8108880910986051E-2</v>
       </c>
       <c r="D278">
@@ -22466,7 +22469,7 @@
       <c r="B279">
         <v>19964</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="2">
         <v>6.7459789869708783E-2</v>
       </c>
       <c r="D279">
@@ -22549,7 +22552,7 @@
       <c r="B280">
         <v>19971</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="2">
         <v>1.3863656481608051E-2</v>
       </c>
       <c r="D280">
@@ -22632,7 +22635,7 @@
       <c r="B281">
         <v>19972</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="2">
         <v>0.1485071031702925</v>
       </c>
       <c r="D281">
@@ -22715,7 +22718,7 @@
       <c r="B282">
         <v>19973</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="2">
         <v>6.1016249239505847E-2</v>
       </c>
       <c r="D282">
@@ -22798,7 +22801,7 @@
       <c r="B283">
         <v>19974</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="2">
         <v>1.683440863635266E-2</v>
       </c>
       <c r="D283">
@@ -22881,7 +22884,7 @@
       <c r="B284">
         <v>19981</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="2">
         <v>0.1186518916446158</v>
       </c>
       <c r="D284">
@@ -22964,7 +22967,7 @@
       <c r="B285">
         <v>19982</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="2">
         <v>2.1036240249048981E-2</v>
       </c>
       <c r="D285">
@@ -23047,7 +23050,7 @@
       <c r="B286">
         <v>19983</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="2">
         <v>-0.1157349858244953</v>
       </c>
       <c r="D286">
@@ -23130,7 +23133,7 @@
       <c r="B287">
         <v>19984</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="2">
         <v>0.18387342701806589</v>
       </c>
       <c r="D287">
@@ -23213,7 +23216,7 @@
       <c r="B288">
         <v>19991</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="2">
         <v>3.6776646307868387E-2</v>
       </c>
       <c r="D288">
@@ -23296,7 +23299,7 @@
       <c r="B289">
         <v>19992</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="2">
         <v>5.5401893526839177E-2</v>
       </c>
       <c r="D289">
@@ -23379,7 +23382,7 @@
       <c r="B290">
         <v>19993</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="2">
         <v>-7.5528505056183706E-2</v>
       </c>
       <c r="D290">
@@ -23462,7 +23465,7 @@
       <c r="B291">
         <v>19994</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="2">
         <v>0.1319341229805478</v>
       </c>
       <c r="D291">
@@ -23545,7 +23548,7 @@
       <c r="B292">
         <v>20001</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="2">
         <v>1.250237893973963E-2</v>
       </c>
       <c r="D292">
@@ -23628,7 +23631,7 @@
       <c r="B293">
         <v>20002</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="2">
         <v>-4.2894660066135598E-2</v>
       </c>
       <c r="D293">
@@ -23711,7 +23714,7 @@
       <c r="B294">
         <v>20003</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="2">
         <v>-1.9782854608063411E-2</v>
       </c>
       <c r="D294">
@@ -23794,7 +23797,7 @@
       <c r="B295">
         <v>20004</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="2">
         <v>-9.4814190291014067E-2</v>
       </c>
       <c r="D295">
@@ -23877,7 +23880,7 @@
       <c r="B296">
         <v>20011</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="2">
         <v>-0.14364310653741</v>
       </c>
       <c r="D296">
@@ -23960,7 +23963,7 @@
       <c r="B297">
         <v>20012</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="2">
         <v>4.5990966293899489E-2</v>
       </c>
       <c r="D297">
@@ -24043,7 +24046,7 @@
       <c r="B298">
         <v>20013</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="2">
         <v>-0.1673582612696933</v>
       </c>
       <c r="D298">
@@ -24126,7 +24129,7 @@
       <c r="B299">
         <v>20014</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="2">
         <v>9.7620776794354255E-2</v>
       </c>
       <c r="D299">
@@ -24209,7 +24212,7 @@
       <c r="B300">
         <v>20021</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="2">
         <v>-1.4335658937356191E-3</v>
       </c>
       <c r="D300">
@@ -24292,7 +24295,7 @@
       <c r="B301">
         <v>20022</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="2">
         <v>-0.1492587443289202</v>
       </c>
       <c r="D301">
@@ -24375,7 +24378,7 @@
       <c r="B302">
         <v>20023</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="2">
         <v>-0.18944338252175411</v>
       </c>
       <c r="D302">
@@ -24458,7 +24461,7 @@
       <c r="B303">
         <v>20024</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="2">
         <v>7.7532089765926709E-2</v>
       </c>
       <c r="D303">
@@ -24541,7 +24544,7 @@
       <c r="B304">
         <v>20031</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="2">
         <v>-3.5017371729974017E-2</v>
       </c>
       <c r="D304">
@@ -24624,7 +24627,7 @@
       <c r="B305">
         <v>20032</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="2">
         <v>0.14132139085185569</v>
       </c>
       <c r="D305">
@@ -24707,7 +24710,7 @@
       <c r="B306">
         <v>20033</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="2">
         <v>2.4088152857007411E-2</v>
       </c>
       <c r="D306">
@@ -24790,7 +24793,7 @@
       <c r="B307">
         <v>20034</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="2">
         <v>0.1114245539139878</v>
       </c>
       <c r="D307">
@@ -24873,7 +24876,7 @@
       <c r="B308">
         <v>20041</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="2">
         <v>1.5855722647972161E-2</v>
       </c>
       <c r="D308">
@@ -24956,7 +24959,7 @@
       <c r="B309">
         <v>20042</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="2">
         <v>1.4783550884548829E-2</v>
       </c>
       <c r="D309">
@@ -25039,7 +25042,7 @@
       <c r="B310">
         <v>20043</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="2">
         <v>-2.2120498720307361E-2</v>
       </c>
       <c r="D310">
@@ -25122,7 +25125,7 @@
       <c r="B311">
         <v>20044</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="2">
         <v>8.3681054000770999E-2</v>
       </c>
       <c r="D311">
@@ -25205,7 +25208,7 @@
       <c r="B312">
         <v>20051</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="2">
         <v>-2.603138507552339E-2</v>
       </c>
       <c r="D312">
@@ -25288,7 +25291,7 @@
       <c r="B313">
         <v>20052</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="2">
         <v>7.2743463570035466E-3</v>
       </c>
       <c r="D313">
@@ -25371,7 +25374,7 @@
       <c r="B314">
         <v>20053</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="2">
         <v>2.8118743986229228E-2</v>
       </c>
       <c r="D314">
@@ -25454,7 +25457,7 @@
       <c r="B315">
         <v>20054</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="2">
         <v>1.3204404325526281E-2</v>
       </c>
       <c r="D315">
@@ -25537,7 +25540,7 @@
       <c r="B316">
         <v>20061</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="2">
         <v>3.1668890132369287E-2</v>
       </c>
       <c r="D316">
@@ -25620,7 +25623,7 @@
       <c r="B317">
         <v>20062</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="2">
         <v>-2.636207663325224E-2</v>
       </c>
       <c r="D317">
@@ -25703,7 +25706,7 @@
       <c r="B318">
         <v>20063</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="2">
         <v>4.3656965638477978E-2</v>
       </c>
       <c r="D318">
@@ -25786,7 +25789,7 @@
       <c r="B319">
         <v>20064</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="2">
         <v>5.1948042827509817E-2</v>
       </c>
       <c r="D319">
@@ -25869,7 +25872,7 @@
       <c r="B320">
         <v>20071</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="2">
         <v>-5.4964943295518877E-3</v>
       </c>
       <c r="D320">
@@ -25952,7 +25955,7 @@
       <c r="B321">
         <v>20072</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="2">
         <v>4.7895430788182147E-2</v>
       </c>
       <c r="D321">
@@ -26035,7 +26038,7 @@
       <c r="B322">
         <v>20073</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="2">
         <v>8.6112650940512753E-3</v>
       </c>
       <c r="D322">
@@ -26118,7 +26121,7 @@
       <c r="B323">
         <v>20074</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="2">
         <v>-4.0864374206899777E-2</v>
       </c>
       <c r="D323">
@@ -26201,7 +26204,7 @@
       <c r="B324">
         <v>20081</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="2">
         <v>-0.10591757233401081</v>
       </c>
       <c r="D324">
@@ -26284,7 +26287,7 @@
       <c r="B325">
         <v>20082</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="2">
         <v>-2.9234568198925861E-2</v>
       </c>
       <c r="D325">
@@ -26367,7 +26370,7 @@
       <c r="B326">
         <v>20083</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="2">
         <v>-8.6469491649451363E-2</v>
       </c>
       <c r="D326">
@@ -26450,7 +26453,7 @@
       <c r="B327">
         <v>20084</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="2">
         <v>-0.24994919985515349</v>
       </c>
       <c r="D327">
@@ -26533,7 +26536,7 @@
       <c r="B328">
         <v>20091</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="2">
         <v>-0.1116535001796643</v>
       </c>
       <c r="D328">
@@ -26616,7 +26619,7 @@
       <c r="B329">
         <v>20092</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="2">
         <v>0.14519847355716631</v>
       </c>
       <c r="D329">
@@ -26699,7 +26702,7 @@
       <c r="B330">
         <v>20093</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="2">
         <v>0.14143205932242919</v>
       </c>
       <c r="D330">
@@ -26782,7 +26785,7 @@
       <c r="B331">
         <v>20094</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="2">
         <v>5.8588694767759207E-2</v>
       </c>
       <c r="D331">
@@ -26865,7 +26868,7 @@
       <c r="B332">
         <v>20101</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="2">
         <v>5.2664711507984213E-2</v>
       </c>
       <c r="D332">
@@ -26948,7 +26951,7 @@
       <c r="B333">
         <v>20102</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="2">
         <v>-0.12303720877481029</v>
       </c>
       <c r="D333">
@@ -27031,7 +27034,7 @@
       <c r="B334">
         <v>20103</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="2">
         <v>0.10781061860041451</v>
       </c>
       <c r="D334">
@@ -27114,7 +27117,7 @@
       <c r="B335">
         <v>20104</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="2">
         <v>0.10247061144548961</v>
       </c>
       <c r="D335">
@@ -27197,7 +27200,7 @@
       <c r="B336">
         <v>20111</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="2">
         <v>5.5346242271668997E-2</v>
       </c>
       <c r="D336">
@@ -27280,7 +27283,7 @@
       <c r="B337">
         <v>20112</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="2">
         <v>7.0509181373721707E-4</v>
       </c>
       <c r="D337">
@@ -27363,7 +27366,7 @@
       <c r="B338">
         <v>20113</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="2">
         <v>-0.14880699550133489</v>
       </c>
       <c r="D338">
@@ -27446,7 +27449,7 @@
       <c r="B339">
         <v>20114</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="2">
         <v>0.1100984506782465</v>
       </c>
       <c r="D339">
@@ -27529,7 +27532,7 @@
       <c r="B340">
         <v>20121</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="2">
         <v>0.1189526068376601</v>
       </c>
       <c r="D340">
@@ -27612,7 +27615,7 @@
       <c r="B341">
         <v>20122</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="2">
         <v>-2.7275906781056701E-2</v>
       </c>
       <c r="D341">
@@ -27695,7 +27698,7 @@
       <c r="B342">
         <v>20123</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="2">
         <v>6.1334744763339083E-2</v>
       </c>
       <c r="D342">
@@ -27778,7 +27781,7 @@
       <c r="B343">
         <v>20124</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="2">
         <v>-4.4890808414263924E-3</v>
       </c>
       <c r="D343">
@@ -27861,7 +27864,7 @@
       <c r="B344">
         <v>20131</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="2">
         <v>0.100685218709</v>
       </c>
       <c r="D344">
@@ -27944,7 +27947,7 @@
       <c r="B345">
         <v>20132</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="2">
         <v>2.8368456151606321E-2</v>
       </c>
       <c r="D345">
@@ -28027,7 +28030,7 @@
       <c r="B346">
         <v>20133</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="2">
         <v>5.0832106976961548E-2</v>
       </c>
       <c r="D346">
@@ -28110,7 +28113,7 @@
       <c r="B347">
         <v>20134</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="2">
         <v>0.101150252547303</v>
       </c>
       <c r="D347">
@@ -28193,7 +28196,7 @@
       <c r="B348">
         <v>20141</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="2">
         <v>1.7308640513376921E-2</v>
       </c>
       <c r="D348">
@@ -28276,7 +28279,7 @@
       <c r="B349">
         <v>20142</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="2">
         <v>4.9875093984518407E-2</v>
       </c>
       <c r="D349">
@@ -28359,7 +28362,7 @@
       <c r="B350">
         <v>20143</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="2">
         <v>1.0807811792177361E-2</v>
       </c>
       <c r="D350">
@@ -28442,7 +28445,7 @@
       <c r="B351">
         <v>20144</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="2">
         <v>4.8419274007027703E-2</v>
       </c>
       <c r="D351">
@@ -28525,7 +28528,7 @@
       <c r="B352">
         <v>20151</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="2">
         <v>1.0388995820889649E-2</v>
       </c>
       <c r="D352">
@@ -28608,7 +28611,7 @@
       <c r="B353">
         <v>20152</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="2">
         <v>1.895571680846633E-3</v>
       </c>
       <c r="D353">
@@ -28691,7 +28694,7 @@
       <c r="B354">
         <v>20153</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="2">
         <v>-6.5796808350302494E-2</v>
       </c>
       <c r="D354">
@@ -28774,7 +28777,7 @@
       <c r="B355">
         <v>20154</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="2">
         <v>6.810236597247761E-2</v>
       </c>
       <c r="D355">
@@ -28857,7 +28860,7 @@
       <c r="B356">
         <v>20161</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="2">
         <v>1.250484374913984E-2</v>
       </c>
       <c r="D356">
@@ -28940,7 +28943,7 @@
       <c r="B357">
         <v>20162</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="2">
         <v>2.4004881457870341E-2</v>
       </c>
       <c r="D357">
@@ -29023,7 +29026,7 @@
       <c r="B358">
         <v>20163</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="2">
         <v>3.693550172935945E-2</v>
       </c>
       <c r="D358">
@@ -29106,7 +29109,7 @@
       <c r="B359">
         <v>20164</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="2">
         <v>3.5336487424082373E-2</v>
       </c>
       <c r="D359">
@@ -29189,7 +29192,7 @@
       <c r="B360">
         <v>20171</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="2">
         <v>5.8287338000267988E-2</v>
       </c>
       <c r="D360">
@@ -29272,7 +29275,7 @@
       <c r="B361">
         <v>20172</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="2">
         <v>2.8915409411509399E-2</v>
       </c>
       <c r="D361">
@@ -29355,7 +29358,7 @@
       <c r="B362">
         <v>20173</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="2">
         <v>4.012488900817348E-2</v>
       </c>
       <c r="D362">
@@ -29438,7 +29441,7 @@
       <c r="B363">
         <v>20174</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="2">
         <v>6.3292866696411251E-2</v>
       </c>
       <c r="D363">
@@ -29521,7 +29524,7 @@
       <c r="B364">
         <v>20181</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="2">
         <v>-1.103471194706734E-2</v>
       </c>
       <c r="D364">
@@ -29604,7 +29607,7 @@
       <c r="B365">
         <v>20182</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="2">
         <v>2.9859825471541309E-2</v>
       </c>
       <c r="D365">
@@ -29687,7 +29690,7 @@
       <c r="B366">
         <v>20183</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="2">
         <v>6.9264041854417341E-2</v>
       </c>
       <c r="D366">
@@ -29770,7 +29773,7 @@
       <c r="B367">
         <v>20184</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="2">
         <v>-0.15163363532962329</v>
       </c>
       <c r="D367">
